--- a/upload/laporanKegiatanInfrastruktur.xlsx
+++ b/upload/laporanKegiatanInfrastruktur.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>Tanggal Complain :  06/01/2023  s/d  06/13/2023</t>
-  </si>
-  <si>
-    <t>Jenis Unit :  LP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+  <si>
+    <t>Tanggal Complain :  01/01/2023  s/d  06/13/2023</t>
+  </si>
+  <si>
+    <t>Jenis Unit :  CU</t>
   </si>
   <si>
     <t>No</t>
@@ -56,31 +56,187 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>ZM23000063</t>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>ZM23000500</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>INSTAL MANUFACTURE</t>
+  </si>
+  <si>
+    <t>03-FEB-23 08:41</t>
+  </si>
+  <si>
+    <t>Pengesahan Divisi</t>
+  </si>
+  <si>
+    <t>ZM23000499</t>
+  </si>
+  <si>
+    <t>03-FEB-23 08:39</t>
+  </si>
+  <si>
+    <t>ZM23000498</t>
+  </si>
+  <si>
+    <t>03-FEB-23 08:31</t>
+  </si>
+  <si>
+    <t>ZM23000493</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Install CPU Baru</t>
+  </si>
+  <si>
+    <t>02-FEB-23 14:26</t>
+  </si>
+  <si>
+    <t>ZM23000482</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>KOMPUTER PR15 TIDAK MASUK PROGRAM</t>
+  </si>
+  <si>
+    <t>02-FEB-23 10:02</t>
+  </si>
+  <si>
+    <t>ZM23000481</t>
+  </si>
+  <si>
+    <t>PINDAH COMPUTER DAN SETTING PRINTER WIFI DLL</t>
+  </si>
+  <si>
+    <t>02-FEB-23 10:25</t>
+  </si>
+  <si>
+    <t>ZM23000469</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>ASTM BOMBING CPU MATI</t>
+  </si>
+  <si>
+    <t>01-FEB-23 15:27</t>
+  </si>
+  <si>
+    <t>ZM23000453</t>
+  </si>
+  <si>
+    <t>SETTING AM</t>
+  </si>
+  <si>
+    <t>01-FEB-23 09:12</t>
+  </si>
+  <si>
+    <t>ZM23000468</t>
+  </si>
+  <si>
+    <t>INSTSL U BUNTU ( PATAS PATAS SEKALI )</t>
+  </si>
+  <si>
+    <t>01-FEB-23 15:26</t>
+  </si>
+  <si>
+    <t>ZM23000470</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>CPU tidak bisa booting</t>
+  </si>
+  <si>
+    <t>01-FEB-23 16:22</t>
+  </si>
+  <si>
+    <t>ZM23000460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komputer ED35  INSTAL LINUX </t>
+  </si>
+  <si>
+    <t>01-FEB-23 10:00</t>
+  </si>
+  <si>
+    <t>ZM23000459</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>01-FEB-23 09:58</t>
+  </si>
+  <si>
+    <t>ZM23000456</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Bongkar dan pasang CPU ke Hollow</t>
+  </si>
+  <si>
+    <t>01-FEB-23 09:26</t>
+  </si>
+  <si>
+    <t>ZM23000517</t>
   </si>
   <si>
     <t>FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Laptop </t>
-  </si>
-  <si>
-    <t>11-JUN-23 15:00</t>
-  </si>
-  <si>
-    <t>Aktif</t>
-  </si>
-  <si>
-    <t>ZM23000062</t>
-  </si>
-  <si>
-    <t>Laptop gabisa main valorant</t>
-  </si>
-  <si>
-    <t>10-JUN-23 15:45</t>
+    <t>TIDAK MUNCUL FILE MENU DI DESKTOP</t>
+  </si>
+  <si>
+    <t>04-FEB-23 14:38</t>
+  </si>
+  <si>
+    <t>ZM23000513</t>
+  </si>
+  <si>
+    <t>PC04 TIDAK BISA MASUK LINUX</t>
+  </si>
+  <si>
+    <t>03-FEB-23 13:57</t>
+  </si>
+  <si>
+    <t>ZM23000508</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>PROGRAM MENU KCALC KETIKA DIKCALC LEMOT</t>
+  </si>
+  <si>
+    <t>03-FEB-23 10:47</t>
+  </si>
+  <si>
+    <t>ZM23000502</t>
+  </si>
+  <si>
+    <t>Install Linux CPU Baru</t>
+  </si>
+  <si>
+    <t>03-FEB-23 09:37</t>
+  </si>
+  <si>
+    <t>ZM23000497</t>
+  </si>
+  <si>
+    <t>Install Linux CPU baru</t>
   </si>
 </sst>
 </file>
@@ -420,7 +576,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -524,12 +680,428 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
         <v>18</v>
       </c>
     </row>
